--- a/biology/Médecine/Glycogénolyse/Glycogénolyse.xlsx
+++ b/biology/Médecine/Glycogénolyse/Glycogénolyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glycog%C3%A9nolyse</t>
+          <t>Glycogénolyse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glycogénolyse est la production de glucose à partir de la phosphorolyse du glycogène.
-Elle permet d'obtenir des molécules de glucose-6-phosphate qui peuvent soit participer à la glycolyse pour fournir de l'énergie sous forme d'ATP, soit être déphosphorylées par une glucose-6-phosphatase présente principalement dans le foie[1] et à un très moindre degré dans le rein. Ce glucose libre permet alors de maintenir la glycémie à une valeur proche de 0,9 g/L.
+Elle permet d'obtenir des molécules de glucose-6-phosphate qui peuvent soit participer à la glycolyse pour fournir de l'énergie sous forme d'ATP, soit être déphosphorylées par une glucose-6-phosphatase présente principalement dans le foie et à un très moindre degré dans le rein. Ce glucose libre permet alors de maintenir la glycémie à une valeur proche de 0,9 g/L.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycog%C3%A9nolyse</t>
+          <t>Glycogénolyse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle s'oppose à la glycogénogenèse, mais comme la néoglucogenèse, elle est stimulée par le glucagon au niveau du foie, des reins et de l'intestin et par l'adrénaline et l'ion calcique (activateur de la contraction) au niveau du muscle et est inhibée par l'insuline.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glycog%C3%A9nolyse</t>
+          <t>Glycogénolyse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois étapes principales :
 glycogène [(glc)n]  → [(glc)n-1] + glucose-1-phosphate, réaction catalysée par la glycogène phosphorylase. L’hydrolyse complète demande l’intervention d’une transférase et de l'α 1-6 glucosidase (enzyme débranchante) ;
